--- a/BusinessIntelligence/sample_data/Data Bleanding File One.xlsx
+++ b/BusinessIntelligence/sample_data/Data Bleanding File One.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="315" windowWidth="12240" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Emplyee Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Employee Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -78,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,7 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,16 +408,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -441,7 +439,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -453,7 +451,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -465,7 +463,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -477,7 +475,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -486,10 +484,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -498,10 +496,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -510,10 +508,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -522,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -534,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -546,10 +544,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -558,10 +556,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -570,10 +568,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -582,10 +580,10 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -594,10 +592,10 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -606,10 +604,10 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -618,10 +616,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -630,10 +628,10 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -642,10 +640,10 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -654,10 +652,10 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -665,7 +663,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>10000</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -674,24 +672,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
